--- a/datastatic/datasets/online/common-farmland-birds_eurostat.xlsx
+++ b/datastatic/datasets/online/common-farmland-birds_eurostat.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>original_title</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Estonia</t>
@@ -218,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -241,6 +244,10 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -283,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -318,6 +325,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -674,7 +684,9 @@
       <c r="A41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="12">
+        <v>79.8</v>
+      </c>
       <c r="C41" s="11">
         <v>79.8</v>
       </c>
@@ -684,10 +696,13 @@
       <c r="E41" s="11">
         <v>78.5</v>
       </c>
+      <c r="F41" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" s="11">
         <v>67.4</v>
@@ -704,7 +719,7 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="11">
         <v>59.3</v>
@@ -721,7 +736,7 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="11">
         <v>62.0</v>
@@ -738,7 +753,7 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" s="11">
         <v>61.1</v>
@@ -755,7 +770,7 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" s="11">
         <v>54.8</v>
@@ -772,7 +787,7 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47" s="11">
         <v>66.2</v>
@@ -789,7 +804,7 @@
     </row>
     <row r="48">
       <c r="A48" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" s="11">
         <v>97.4</v>
